--- a/data/trans_orig/P37B_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P37B_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>40368</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>27598</v>
+        <v>27793</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>57117</v>
+        <v>56866</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1139757032727797</v>
+        <v>0.1139757032727798</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07792046784010544</v>
+        <v>0.07847072956809552</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1612633818375886</v>
+        <v>0.1605539647929653</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>66</v>
@@ -762,19 +762,19 @@
         <v>49034</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>38781</v>
+        <v>38167</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>63476</v>
+        <v>62773</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.1232656196761604</v>
+        <v>0.1232656196761603</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09749145616179393</v>
+        <v>0.09594749289008524</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1595693938624667</v>
+        <v>0.1578023799823496</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>97</v>
@@ -783,19 +783,19 @@
         <v>89403</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>72744</v>
+        <v>72575</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>110546</v>
+        <v>111448</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1188900260920863</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09673628945235832</v>
+        <v>0.09651277810030806</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1470068388752002</v>
+        <v>0.1482063562510824</v>
       </c>
     </row>
     <row r="5">
@@ -815,16 +815,16 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7405</v>
+        <v>6956</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.006098979970116939</v>
+        <v>0.006098979970116941</v>
       </c>
       <c r="H5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02090734808816914</v>
+        <v>0.01963919977978828</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -833,19 +833,19 @@
         <v>4848</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2145</v>
+        <v>2104</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9249</v>
+        <v>9732</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.01218821169590197</v>
+        <v>0.01218821169590196</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0053920308768455</v>
+        <v>0.005290234285144101</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0232509465971219</v>
+        <v>0.0244646723237061</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>9</v>
@@ -854,19 +854,19 @@
         <v>7009</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3417</v>
+        <v>3488</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>13040</v>
+        <v>13939</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.009320155395461065</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.004544029685565086</v>
+        <v>0.004638403024125345</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01734027511185449</v>
+        <v>0.0185360211724647</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>15766</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9070</v>
+        <v>9463</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>25768</v>
+        <v>26988</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04451314667283996</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0256087915244438</v>
+        <v>0.02671886306659341</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07275343300181548</v>
+        <v>0.07619671525378828</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>17</v>
@@ -904,19 +904,19 @@
         <v>12960</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7886</v>
+        <v>8204</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>19913</v>
+        <v>20282</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.03257984761014828</v>
+        <v>0.03257984761014827</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01982531323882154</v>
+        <v>0.02062366605581432</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05005871080479006</v>
+        <v>0.05098602002279603</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>32</v>
@@ -925,19 +925,19 @@
         <v>28726</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>20086</v>
+        <v>20016</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>40402</v>
+        <v>40407</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.03820048665018844</v>
+        <v>0.03820048665018842</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02671032963366415</v>
+        <v>0.02661720004521924</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05372770769836089</v>
+        <v>0.05373384715871374</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>270404</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>250214</v>
+        <v>250254</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>288523</v>
+        <v>286210</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.7634549704593664</v>
+        <v>0.7634549704593665</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7064511778338636</v>
+        <v>0.7065625430821643</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8146122567120891</v>
+        <v>0.8080815341401515</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>358</v>
@@ -975,19 +975,19 @@
         <v>297563</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>278880</v>
+        <v>278799</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>311550</v>
+        <v>312525</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.7480347601375936</v>
+        <v>0.7480347601375935</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7010678486984553</v>
+        <v>0.7008654931866293</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7831963077132386</v>
+        <v>0.7856462576269789</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>584</v>
@@ -996,19 +996,19 @@
         <v>567967</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>541981</v>
+        <v>541640</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>590259</v>
+        <v>591870</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7552977505047048</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7207403152059113</v>
+        <v>0.7202865507491419</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7849414425475759</v>
+        <v>0.7870846040777579</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>25486</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>16500</v>
+        <v>16752</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>37467</v>
+        <v>38766</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.07195719962489679</v>
+        <v>0.0719571996248968</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04658682976650919</v>
+        <v>0.04729836911817661</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1057833583296496</v>
+        <v>0.1094521532257174</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>42</v>
@@ -1046,19 +1046,19 @@
         <v>33387</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>23714</v>
+        <v>24320</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>44541</v>
+        <v>44838</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.08393156088019584</v>
+        <v>0.08393156088019581</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05961296403964483</v>
+        <v>0.06113791631914829</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1119711267448943</v>
+        <v>0.1127181159146501</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>65</v>
@@ -1067,19 +1067,19 @@
         <v>58874</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>45663</v>
+        <v>46521</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>75678</v>
+        <v>75983</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.07829158135755936</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06072446453144862</v>
+        <v>0.06186419543728721</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.100637938021419</v>
+        <v>0.1010436875889387</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>81694</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>62254</v>
+        <v>60058</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>105026</v>
+        <v>106414</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1263476807291596</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09628176649342395</v>
+        <v>0.09288539752671961</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1624341503651116</v>
+        <v>0.1645804902512982</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>125</v>
@@ -1192,19 +1192,19 @@
         <v>97768</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>81825</v>
+        <v>80692</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>116677</v>
+        <v>116779</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.1405559606055316</v>
+        <v>0.1405559606055317</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1176366824490992</v>
+        <v>0.1160064418544976</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1677412588127546</v>
+        <v>0.1678873235916899</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>178</v>
@@ -1213,19 +1213,19 @@
         <v>179461</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>151497</v>
+        <v>151099</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>210059</v>
+        <v>211425</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1337111820175449</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1128758738114555</v>
+        <v>0.1125794581215362</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1565083259258157</v>
+        <v>0.157526208629929</v>
       </c>
     </row>
     <row r="11">
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5700</v>
+        <v>6353</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.002750006776295797</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.008816247617871673</v>
+        <v>0.009825903703217885</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>10</v>
@@ -1263,19 +1263,19 @@
         <v>7508</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3539</v>
+        <v>4194</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>14843</v>
+        <v>14463</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01079429555239413</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.005087430895413464</v>
+        <v>0.006029741963132245</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02133867312699885</v>
+        <v>0.02079321790465996</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>12</v>
@@ -1284,19 +1284,19 @@
         <v>9286</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>4681</v>
+        <v>4910</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>16557</v>
+        <v>16501</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.006918993541924452</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.003487606181321238</v>
+        <v>0.003658555904907435</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01233604721678195</v>
+        <v>0.01229473075346129</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>15187</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8395</v>
+        <v>8174</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>25415</v>
+        <v>26680</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02348850029649488</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01298308599099209</v>
+        <v>0.0126418292178932</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03930634411023156</v>
+        <v>0.0412630922827017</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>23</v>
@@ -1334,19 +1334,19 @@
         <v>16050</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>10409</v>
+        <v>10258</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>24206</v>
+        <v>24564</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02307482479954599</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01496523906571657</v>
+        <v>0.0147475184571626</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03479965995191294</v>
+        <v>0.03531395061611819</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>36</v>
@@ -1355,19 +1355,19 @@
         <v>31237</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>20425</v>
+        <v>21671</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>44231</v>
+        <v>42859</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02327411121623597</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0152177078689361</v>
+        <v>0.0161461755130384</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03295506693932679</v>
+        <v>0.03193301725311117</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>494207</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>467000</v>
+        <v>467830</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>518381</v>
+        <v>519859</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7643430265738171</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7222636787691439</v>
+        <v>0.723548160172641</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8017302718614245</v>
+        <v>0.8040151440120491</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>647</v>
@@ -1405,19 +1405,19 @@
         <v>499865</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>477891</v>
+        <v>477324</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>520166</v>
+        <v>520974</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.7186324601930892</v>
+        <v>0.7186324601930896</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6870417965066464</v>
+        <v>0.6862265101999608</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7478185092296259</v>
+        <v>0.7489792743207166</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1073</v>
@@ -1426,19 +1426,19 @@
         <v>994072</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>959656</v>
+        <v>959602</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1028742</v>
+        <v>1027941</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7406533317362988</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7150107985198318</v>
+        <v>0.7149708234234284</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7664843205665024</v>
+        <v>0.7658876755104591</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>53712</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>38985</v>
+        <v>39281</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>71440</v>
+        <v>73254</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0830707856242327</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06029511313085043</v>
+        <v>0.06075167083873306</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1104891754830453</v>
+        <v>0.11329495604125</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>95</v>
@@ -1476,19 +1476,19 @@
         <v>74387</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>60343</v>
+        <v>59074</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>89923</v>
+        <v>89369</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1069424588494387</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08675223429054194</v>
+        <v>0.0849283455179896</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1292782800445134</v>
+        <v>0.1284813815248289</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>142</v>
@@ -1497,19 +1497,19 @@
         <v>128099</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>109884</v>
+        <v>107498</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>154852</v>
+        <v>152365</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.09544238148799598</v>
+        <v>0.095442381487996</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0818712341444673</v>
+        <v>0.0800937668946031</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1153756809344382</v>
+        <v>0.1135227077516472</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>44541</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>30490</v>
+        <v>30976</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>59411</v>
+        <v>60432</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06436132912820333</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.044057367127278</v>
+        <v>0.04475981137664701</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08584716355853599</v>
+        <v>0.08732247234470462</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>59</v>
@@ -1622,19 +1622,19 @@
         <v>43406</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>33241</v>
+        <v>33489</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>57182</v>
+        <v>56585</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.06738395022164063</v>
+        <v>0.06738395022164062</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05160291758534277</v>
+        <v>0.05198908458554819</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08876864958784644</v>
+        <v>0.08784188305078995</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>96</v>
@@ -1643,19 +1643,19 @@
         <v>87948</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>69859</v>
+        <v>71392</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>106535</v>
+        <v>110753</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06581847863293858</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05228118328683294</v>
+        <v>0.05342865097943837</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07972901003396551</v>
+        <v>0.08288566515774258</v>
       </c>
     </row>
     <row r="17">
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6791</v>
+        <v>6076</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.002709106347796599</v>
@@ -1684,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.009812786811511164</v>
+        <v>0.008779639157434989</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -1693,19 +1693,19 @@
         <v>4334</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1928</v>
+        <v>1712</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8627</v>
+        <v>8587</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.006728362636749425</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.002993001693185637</v>
+        <v>0.00265846897457701</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01339276983220403</v>
+        <v>0.01333025326628666</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>9</v>
@@ -1714,19 +1714,19 @@
         <v>6209</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2807</v>
+        <v>2887</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>11166</v>
+        <v>11710</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.00464671517464148</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.002100456710413903</v>
+        <v>0.002160367421737304</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.008356488894117834</v>
+        <v>0.008763312384944419</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>29951</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>19836</v>
+        <v>19703</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>43473</v>
+        <v>42659</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.04327802768236096</v>
+        <v>0.04327802768236097</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02866307585975122</v>
+        <v>0.02847041805035471</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06281765431772481</v>
+        <v>0.06164171983158812</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>16</v>
@@ -1764,19 +1764,19 @@
         <v>10057</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>5892</v>
+        <v>6095</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>17327</v>
+        <v>17134</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01561254819228878</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.009147500184573594</v>
+        <v>0.009461684886879458</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02689861417450229</v>
+        <v>0.02659818347092746</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>44</v>
@@ -1785,19 +1785,19 @@
         <v>40008</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>28482</v>
+        <v>29273</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>54145</v>
+        <v>54829</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02994101371632048</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02131524361926829</v>
+        <v>0.0219075477575991</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04052148714189137</v>
+        <v>0.04103312729622813</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>582295</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>561695</v>
+        <v>557954</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>604958</v>
+        <v>601901</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.8414058511952933</v>
+        <v>0.8414058511952935</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.81163935801065</v>
+        <v>0.8062332817674711</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8741538176569217</v>
+        <v>0.8697367864539548</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>730</v>
@@ -1835,19 +1835,19 @@
         <v>555896</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>539886</v>
+        <v>540599</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>568958</v>
+        <v>570431</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.8629720700016484</v>
+        <v>0.8629720700016482</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8381196363560148</v>
+        <v>0.8392263130917906</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.883250670348768</v>
+        <v>0.8855366882084922</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1234</v>
@@ -1856,19 +1856,19 @@
         <v>1138190</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1110738</v>
+        <v>1111776</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1164327</v>
+        <v>1160978</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.851802524837558</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.8312578600269311</v>
+        <v>0.8320345071144971</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8713624107264624</v>
+        <v>0.86885641097086</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>33388</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>22022</v>
+        <v>23209</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>46032</v>
+        <v>48086</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.0482456856463457</v>
+        <v>0.04824568564634572</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03182117764854716</v>
+        <v>0.03353601833362657</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06651507496609636</v>
+        <v>0.06948326443696315</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>49</v>
@@ -1906,19 +1906,19 @@
         <v>30471</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>21879</v>
+        <v>22924</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>39593</v>
+        <v>40186</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.04730306894767268</v>
+        <v>0.04730306894767267</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03396568436432527</v>
+        <v>0.03558678615905585</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06146388247504225</v>
+        <v>0.06238453871505897</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>83</v>
@@ -1927,19 +1927,19 @@
         <v>63859</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>50196</v>
+        <v>50227</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>80455</v>
+        <v>81121</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04779126763854155</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03756599337678503</v>
+        <v>0.03758897881784148</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06021118659292189</v>
+        <v>0.06070926569228538</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>63548</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>47752</v>
+        <v>47994</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>85519</v>
+        <v>81910</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.1005131418316106</v>
+        <v>0.1005131418316107</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07552833583617705</v>
+        <v>0.07591142452298531</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1352636290202818</v>
+        <v>0.1295556956170693</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>68</v>
@@ -2052,19 +2052,19 @@
         <v>49311</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>38042</v>
+        <v>38236</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>62229</v>
+        <v>65037</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.08663869647675328</v>
+        <v>0.08663869647675329</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06683900753001384</v>
+        <v>0.06718011502405601</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1093363263735918</v>
+        <v>0.1142685738303329</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>120</v>
@@ -2073,19 +2073,19 @@
         <v>112859</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>92321</v>
+        <v>92991</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>135143</v>
+        <v>137846</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.09394017982704037</v>
+        <v>0.09394017982704038</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07684468326728848</v>
+        <v>0.07740260453457626</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1124888570204387</v>
+        <v>0.1147386560543999</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>7709</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1221</v>
+        <v>1264</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>22858</v>
+        <v>23741</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01219390247001354</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.001931124993780084</v>
+        <v>0.001999464324751604</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03615376742205152</v>
+        <v>0.03755043424821207</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>7</v>
@@ -2123,19 +2123,19 @@
         <v>4530</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1896</v>
+        <v>1901</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>9195</v>
+        <v>8750</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0079588977367996</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.00333049389860756</v>
+        <v>0.003339628616193321</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01615594374228773</v>
+        <v>0.01537335818784041</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>10</v>
@@ -2144,19 +2144,19 @@
         <v>12239</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4642</v>
+        <v>4959</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>27517</v>
+        <v>28218</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01018758621818261</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.003863656710225741</v>
+        <v>0.004127644251081555</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02290445025122419</v>
+        <v>0.02348786450459358</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>21678</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>13193</v>
+        <v>13785</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>33359</v>
+        <v>33120</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03428813609886758</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02086738638602032</v>
+        <v>0.02180285330535832</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05276394336074624</v>
+        <v>0.05238588821521581</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>29</v>
@@ -2194,19 +2194,19 @@
         <v>20688</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>14402</v>
+        <v>13898</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>30283</v>
+        <v>29448</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03634920323637122</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02530461394974872</v>
+        <v>0.02441830221213017</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05320690374168405</v>
+        <v>0.05174045135379419</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>51</v>
@@ -2215,19 +2215,19 @@
         <v>42367</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>32461</v>
+        <v>31959</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>57552</v>
+        <v>57056</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03526455826474083</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02701930928515868</v>
+        <v>0.02660203636034919</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04790420529135033</v>
+        <v>0.04749129499579452</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>480842</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>454630</v>
+        <v>456515</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>504127</v>
+        <v>505602</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.7605395528350243</v>
+        <v>0.7605395528350242</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.719080370977986</v>
+        <v>0.7220624642144022</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7973693391884791</v>
+        <v>0.799702604905866</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>582</v>
@@ -2265,19 +2265,19 @@
         <v>438731</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>420553</v>
+        <v>419118</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>454617</v>
+        <v>456240</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.7708463082887899</v>
+        <v>0.7708463082887897</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.7389072058333178</v>
+        <v>0.7363872369028955</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7987583971901254</v>
+        <v>0.8016086625536123</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>982</v>
@@ -2286,19 +2286,19 @@
         <v>919572</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>888633</v>
+        <v>884581</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>949636</v>
+        <v>951135</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.7654223362728704</v>
+        <v>0.7654223362728705</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7396695621980883</v>
+        <v>0.7362967383133483</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7904461566223545</v>
+        <v>0.791694220114086</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>58460</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>45203</v>
+        <v>44448</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>77805</v>
+        <v>77004</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.09246526676448402</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07149610082812645</v>
+        <v>0.07030306206585542</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1230623681268116</v>
+        <v>0.1217964347758719</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>85</v>
@@ -2336,19 +2336,19 @@
         <v>55895</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>44018</v>
+        <v>43407</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>69526</v>
+        <v>69337</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.09820689426128593</v>
+        <v>0.09820689426128594</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.07733972352215987</v>
+        <v>0.07626567329634125</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.122157138519263</v>
+        <v>0.1218242329384115</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>141</v>
@@ -2357,19 +2357,19 @@
         <v>114355</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>95436</v>
+        <v>96061</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>138495</v>
+        <v>137042</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0951853394171658</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.07943768480860816</v>
+        <v>0.07995846599807815</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1152784150827125</v>
+        <v>0.1140696318606723</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>230152</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>197840</v>
+        <v>194779</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>269214</v>
+        <v>264581</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.0989877623842487</v>
+        <v>0.09898776238424871</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.08509059307865098</v>
+        <v>0.08377398068083754</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1157885543507963</v>
+        <v>0.1137956722028551</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>318</v>
@@ -2482,19 +2482,19 @@
         <v>239519</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>213449</v>
+        <v>213120</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>268696</v>
+        <v>269998</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1038366658503233</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.09253454731999783</v>
+        <v>0.09239221482077672</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1164854798100999</v>
+        <v>0.1170498913393617</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>491</v>
@@ -2503,19 +2503,19 @@
         <v>469671</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>423273</v>
+        <v>426662</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>515290</v>
+        <v>517230</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1014026031245863</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.09138519223039929</v>
+        <v>0.09211688526966065</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.111251844786652</v>
+        <v>0.1116706975291546</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>13523</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5304</v>
+        <v>5771</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>27581</v>
+        <v>28192</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.005816020467018469</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.002281048331919456</v>
+        <v>0.00248189901993451</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01186236308058184</v>
+        <v>0.01212526833607308</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>31</v>
@@ -2553,19 +2553,19 @@
         <v>21221</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>14469</v>
+        <v>14481</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>29685</v>
+        <v>30067</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.00919962178717384</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.006272641663320211</v>
+        <v>0.006277671681673602</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01286919391548631</v>
+        <v>0.01303465213725689</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>40</v>
@@ -2574,19 +2574,19 @@
         <v>34743</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>24386</v>
+        <v>24136</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>51865</v>
+        <v>51037</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.007501114504080393</v>
+        <v>0.007501114504080394</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.005265051840572841</v>
+        <v>0.005210925850734872</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01119784062752477</v>
+        <v>0.01101887428994816</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>82582</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>64024</v>
+        <v>66127</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>103748</v>
+        <v>106020</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.03551830210760465</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02753648839141511</v>
+        <v>0.0284412293822058</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04462181820442584</v>
+        <v>0.04559920025775157</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>85</v>
@@ -2624,19 +2624,19 @@
         <v>59756</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>48124</v>
+        <v>47637</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>74663</v>
+        <v>73943</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.02590540792382311</v>
+        <v>0.0259054079238231</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02086289753009102</v>
+        <v>0.02065148758316331</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03236804639102629</v>
+        <v>0.03205604056383614</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>163</v>
@@ -2645,19 +2645,19 @@
         <v>142338</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>120734</v>
+        <v>120071</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>168573</v>
+        <v>169863</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03073090869588506</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02606662167931762</v>
+        <v>0.02592345188328971</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.0363951255593434</v>
+        <v>0.03667360677323458</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>1827749</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1784679</v>
+        <v>1777491</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1877146</v>
+        <v>1873305</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.7861111965043998</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.7675871599480284</v>
+        <v>0.7644955205642763</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.8073570329029693</v>
+        <v>0.8057051056169534</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>2317</v>
@@ -2695,19 +2695,19 @@
         <v>1792054</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1755169</v>
+        <v>1753667</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1828770</v>
+        <v>1826066</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.7768943808922077</v>
+        <v>0.7768943808922076</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.7609037845061128</v>
+        <v>0.760252541267137</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.792811358748718</v>
+        <v>0.7916392509770293</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>3873</v>
@@ -2716,19 +2716,19 @@
         <v>3619803</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>3564566</v>
+        <v>3555409</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>3683931</v>
+        <v>3679706</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.7815210573126787</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.7695952622616764</v>
+        <v>0.7676183244014742</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.7953662813369489</v>
+        <v>0.7944542148566635</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>171046</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>144873</v>
+        <v>143327</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>202161</v>
+        <v>200842</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.07356671853672841</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.06230972635874725</v>
+        <v>0.06164462135425969</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.08694886080289882</v>
+        <v>0.08638174492439413</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>271</v>
@@ -2766,19 +2766,19 @@
         <v>194140</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>171516</v>
+        <v>170755</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>218624</v>
+        <v>219850</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.08416392354647208</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.07435568002279476</v>
+        <v>0.07402586881550516</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.09477807615711006</v>
+        <v>0.09530962195467597</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>431</v>
@@ -2787,19 +2787,19 @@
         <v>365186</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>329164</v>
+        <v>326135</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>401128</v>
+        <v>401184</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.07884431636276952</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.07106698229581428</v>
+        <v>0.07041304257474501</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.08660418875131436</v>
+        <v>0.08661613604465865</v>
       </c>
     </row>
     <row r="33">
